--- a/xlsx/拿破仑法典_intext.xlsx
+++ b/xlsx/拿破仑法典_intext.xlsx
@@ -29,7 +29,7 @@
     <t>法国</t>
   </si>
   <si>
-    <t>政策_政策_美國_拿破仑法典</t>
+    <t>政策_政策_美国_拿破仑法典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B7%E5%90%8C%E6%80%A7%E6%88%80%E8%80%85</t>
   </si>
   <si>
-    <t>男同性戀者</t>
+    <t>男同性恋者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E6%B0%91%E6%B3%95%E5%85%B8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B0%91%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國民法</t>
+    <t>中华民国民法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E5%85%B8</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
